--- a/1/food/2025-12-19-sm.xlsx
+++ b/1/food/2025-12-19-sm.xlsx
@@ -563,6 +563,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -598,6 +615,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -781,7 +815,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1"/>
@@ -806,7 +840,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>МБОУ «Кади-Юртовская СШ № 2»</t>
+          <t>МБОУ СОШ №1 с.Алхан-Кала</t>
         </is>
       </c>
       <c r="C1" s="35" t="n"/>
